--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3812.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3812.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.716288505601697</v>
+        <v>4.147712230682373</v>
       </c>
       <c r="B1">
-        <v>2.258080885853505</v>
+        <v>7.166317462921143</v>
       </c>
       <c r="C1">
-        <v>3.558910470929825</v>
+        <v>5.629353523254395</v>
       </c>
       <c r="D1">
-        <v>4.083761460447847</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.5678259819659551</v>
+        <v>3.168505191802979</v>
       </c>
     </row>
   </sheetData>
